--- a/Note/my프로젝트관리.xlsx
+++ b/Note/my프로젝트관리.xlsx
@@ -2256,6 +2256,87 @@
     <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2280,45 +2361,114 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2334,161 +2484,11 @@
     <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2856,41 +2856,41 @@
     <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
@@ -2935,32 +2935,32 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="95" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="72" t="s">
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="69"/>
+      <c r="C7" s="96"/>
       <c r="D7" s="22"/>
       <c r="E7" s="13">
         <v>27</v>
@@ -3060,7 +3060,7 @@
     <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="89" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="10"/>
@@ -3081,7 +3081,7 @@
     <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="73"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
       <c r="F12" s="6"/>
@@ -3119,7 +3119,7 @@
     <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="92" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="10"/>
@@ -3140,7 +3140,7 @@
     <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="65"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="6"/>
@@ -3178,7 +3178,7 @@
     <row r="17" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="89" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="10"/>
@@ -3199,7 +3199,7 @@
     <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="73"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="10"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
@@ -3257,7 +3257,7 @@
     <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="90" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="10"/>
@@ -3278,7 +3278,7 @@
     <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="75"/>
+      <c r="C22" s="90"/>
       <c r="D22" s="10"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -3316,7 +3316,7 @@
     <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="90" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="10"/>
@@ -3337,7 +3337,7 @@
     <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="75"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="10"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -3375,7 +3375,7 @@
     <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="90" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="10"/>
@@ -3396,7 +3396,7 @@
     <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="75"/>
+      <c r="C28" s="90"/>
       <c r="D28" s="10"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -3434,7 +3434,7 @@
     <row r="30" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="90" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="10"/>
@@ -3455,7 +3455,7 @@
     <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="75"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="10"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -3493,7 +3493,7 @@
     <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="90" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="10"/>
@@ -3514,7 +3514,7 @@
     <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="75"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="10"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -3552,7 +3552,7 @@
     <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="75" t="s">
+      <c r="C36" s="90" t="s">
         <v>261</v>
       </c>
       <c r="D36" s="10"/>
@@ -3573,7 +3573,7 @@
     <row r="37" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="75"/>
+      <c r="C37" s="90"/>
       <c r="D37" s="10"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -3632,7 +3632,7 @@
     <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="76" t="s">
+      <c r="C40" s="91" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="10"/>
@@ -3653,7 +3653,7 @@
     <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="76"/>
+      <c r="C41" s="91"/>
       <c r="D41" s="10"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -3691,7 +3691,7 @@
     <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="91" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="10"/>
@@ -3712,7 +3712,7 @@
     <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="76"/>
+      <c r="C44" s="91"/>
       <c r="D44" s="10"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -3750,7 +3750,7 @@
     <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="76" t="s">
+      <c r="C46" s="91" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="10"/>
@@ -3771,7 +3771,7 @@
     <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="76"/>
+      <c r="C47" s="91"/>
       <c r="D47" s="10"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -3809,7 +3809,7 @@
     <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="76" t="s">
+      <c r="C49" s="91" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="10"/>
@@ -3830,7 +3830,7 @@
     <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="76"/>
+      <c r="C50" s="91"/>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -3889,7 +3889,7 @@
     <row r="53" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="74" t="s">
+      <c r="C53" s="86" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="10"/>
@@ -3910,7 +3910,7 @@
     <row r="54" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="74"/>
+      <c r="C54" s="86"/>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -3948,7 +3948,7 @@
     <row r="56" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="74" t="s">
+      <c r="C56" s="86" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="10"/>
@@ -3969,7 +3969,7 @@
     <row r="57" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="74"/>
+      <c r="C57" s="86"/>
       <c r="D57" s="10"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -4007,7 +4007,7 @@
     <row r="59" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="74" t="s">
+      <c r="C59" s="86" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="10"/>
@@ -4028,7 +4028,7 @@
     <row r="60" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="74"/>
+      <c r="C60" s="86"/>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -4066,7 +4066,7 @@
     <row r="62" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="74" t="s">
+      <c r="C62" s="86" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="10"/>
@@ -4087,7 +4087,7 @@
     <row r="63" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="74"/>
+      <c r="C63" s="86"/>
       <c r="D63" s="10"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -4125,7 +4125,7 @@
     <row r="65" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="86" t="s">
         <v>36</v>
       </c>
       <c r="D65" s="10"/>
@@ -4146,7 +4146,7 @@
     <row r="66" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="74"/>
+      <c r="C66" s="86"/>
       <c r="D66" s="10"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -4184,7 +4184,7 @@
     <row r="68" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="16"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="78" t="s">
+      <c r="C68" s="87" t="s">
         <v>252</v>
       </c>
       <c r="D68" s="7"/>
@@ -4205,7 +4205,7 @@
     <row r="69" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="16"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="78"/>
+      <c r="C69" s="87"/>
       <c r="D69" s="7"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -4265,18 +4265,18 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="79"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="88"/>
       <c r="H72" s="6"/>
       <c r="I72" s="38" t="s">
         <v>271</v>
       </c>
       <c r="J72" s="38"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="77" t="s">
+      <c r="L72" s="85" t="s">
         <v>270</v>
       </c>
-      <c r="M72" s="77"/>
+      <c r="M72" s="85"/>
       <c r="N72" s="42"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
@@ -4302,13 +4302,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
@@ -4321,12 +4320,13 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="F72:G72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4355,7 +4355,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="100" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4366,7 +4366,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="80"/>
+      <c r="A4" s="100"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4378,7 +4378,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="80"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4393,7 +4393,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="80"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4564,8 +4564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4591,12 +4591,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B2" s="43" t="s">
@@ -4611,50 +4611,50 @@
       <c r="E2" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="107" t="s">
+      <c r="F2" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="107" t="s">
+      <c r="G2" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="107" t="s">
+      <c r="H2" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="107" t="s">
+      <c r="I2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="115" t="s">
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="116" t="s">
+      <c r="M2" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="117" t="s">
+      <c r="N2" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="117" t="s">
+      <c r="O2" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="117" t="s">
+      <c r="P2" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="Q2" s="117" t="s">
+      <c r="Q2" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="R2" s="117" t="s">
+      <c r="R2" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="S2" s="118" t="s">
+      <c r="S2" s="77" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="101" t="s">
         <v>89</v>
       </c>
       <c r="D3" s="103" t="s">
@@ -4663,216 +4663,216 @@
       <c r="E3" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="109" t="s">
+      <c r="F3" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109" t="s">
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="95"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="101"/>
       <c r="N3" s="103"/>
-      <c r="O3" s="95"/>
+      <c r="O3" s="101"/>
       <c r="P3" s="103"/>
       <c r="Q3" s="46"/>
       <c r="R3" s="46"/>
-      <c r="S3" s="119"/>
+      <c r="S3" s="78"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="109" t="s">
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="109" t="s">
+      <c r="G4" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="109" t="s">
+      <c r="H4" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="109" t="s">
+      <c r="I4" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
       <c r="Q4" s="46"/>
       <c r="R4" s="46"/>
-      <c r="S4" s="119"/>
+      <c r="S4" s="78"/>
     </row>
     <row r="5" spans="2:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
       <c r="D5" s="103" t="s">
         <v>65</v>
       </c>
       <c r="E5" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109" t="s">
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="104"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="126"/>
       <c r="N5" s="57"/>
       <c r="O5" s="57"/>
       <c r="P5" s="46"/>
       <c r="Q5" s="46"/>
       <c r="R5" s="46"/>
-      <c r="S5" s="119"/>
+      <c r="S5" s="78"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="109" t="s">
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="109" t="s">
+      <c r="G6" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="109" t="s">
+      <c r="H6" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="109" t="s">
+      <c r="I6" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="104"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="126"/>
       <c r="N6" s="52"/>
       <c r="O6" s="52"/>
       <c r="P6" s="46"/>
       <c r="Q6" s="46"/>
       <c r="R6" s="46"/>
-      <c r="S6" s="119"/>
+      <c r="S6" s="78"/>
     </row>
     <row r="7" spans="2:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
       <c r="D7" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="109" t="s">
+      <c r="F7" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109" t="s">
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="104"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="126"/>
       <c r="N7" s="57"/>
       <c r="O7" s="50"/>
       <c r="P7" s="46"/>
       <c r="Q7" s="46"/>
       <c r="R7" s="46"/>
-      <c r="S7" s="119"/>
+      <c r="S7" s="78"/>
     </row>
     <row r="8" spans="2:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="109" t="s">
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="109" t="s">
+      <c r="G8" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="109" t="s">
+      <c r="H8" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="109" t="s">
+      <c r="I8" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="104"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="126"/>
       <c r="N8" s="51"/>
       <c r="O8" s="58"/>
       <c r="P8" s="46"/>
       <c r="Q8" s="46"/>
       <c r="R8" s="46"/>
-      <c r="S8" s="119"/>
+      <c r="S8" s="78"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="109" t="s">
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109" t="s">
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="105"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="127"/>
       <c r="N9" s="52"/>
       <c r="O9" s="59"/>
       <c r="P9" s="46"/>
       <c r="Q9" s="46"/>
       <c r="R9" s="46"/>
-      <c r="S9" s="119"/>
+      <c r="S9" s="78"/>
     </row>
     <row r="10" spans="2:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="121" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="120" t="s">
         <v>250</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="135" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="110" t="s">
+      <c r="F10" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110" t="s">
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="134" t="s">
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="117" t="s">
         <v>251</v>
       </c>
-      <c r="M10" s="85" t="s">
+      <c r="M10" s="120" t="s">
         <v>272</v>
       </c>
       <c r="N10" s="62"/>
@@ -4880,119 +4880,119 @@
       <c r="P10" s="62"/>
       <c r="Q10" s="62"/>
       <c r="R10" s="62"/>
-      <c r="S10" s="120"/>
+      <c r="S10" s="79"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="101"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="110" t="s">
+      <c r="B11" s="121"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="110" t="s">
+      <c r="G11" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="110" t="s">
+      <c r="H11" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="110"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="133"/>
-      <c r="M11" s="101"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="121"/>
       <c r="N11" s="62"/>
       <c r="O11" s="62"/>
       <c r="P11" s="62"/>
       <c r="Q11" s="62"/>
       <c r="R11" s="62"/>
-      <c r="S11" s="120"/>
+      <c r="S11" s="79"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="101"/>
-      <c r="C12" s="86"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="136"/>
       <c r="D12" s="47" t="s">
         <v>96</v>
       </c>
       <c r="E12" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="110" t="s">
+      <c r="F12" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="G12" s="110" t="s">
+      <c r="G12" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="H12" s="110" t="s">
+      <c r="H12" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="I12" s="110" t="s">
+      <c r="I12" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="101"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="121"/>
       <c r="N12" s="62"/>
       <c r="O12" s="62"/>
       <c r="P12" s="62"/>
       <c r="Q12" s="62"/>
       <c r="R12" s="62"/>
-      <c r="S12" s="120"/>
+      <c r="S12" s="79"/>
     </row>
     <row r="13" spans="2:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="101"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="88" t="s">
+      <c r="B13" s="121"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="110" t="s">
+      <c r="G13" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="H13" s="110" t="s">
+      <c r="H13" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="110" t="s">
+      <c r="I13" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="101"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="121"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
       <c r="P13" s="62"/>
       <c r="Q13" s="62"/>
       <c r="R13" s="62"/>
-      <c r="S13" s="120"/>
+      <c r="S13" s="79"/>
     </row>
     <row r="14" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="101"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="110" t="s">
+      <c r="B14" s="121"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="G14" s="110" t="s">
+      <c r="G14" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="110" t="s">
+      <c r="H14" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="I14" s="110" t="s">
+      <c r="I14" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="101"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="121"/>
       <c r="N14" s="63" t="s">
         <v>336</v>
       </c>
@@ -5004,31 +5004,31 @@
       </c>
       <c r="Q14" s="62"/>
       <c r="R14" s="62"/>
-      <c r="S14" s="120"/>
+      <c r="S14" s="79"/>
     </row>
     <row r="15" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="101"/>
-      <c r="C15" s="87"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="137"/>
       <c r="D15" s="47" t="s">
         <v>92</v>
       </c>
       <c r="E15" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="110" t="s">
+      <c r="F15" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="110" t="s">
+      <c r="G15" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="H15" s="110" t="s">
+      <c r="H15" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="I15" s="110"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="133"/>
-      <c r="M15" s="101"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="121"/>
       <c r="N15" s="62" t="s">
         <v>330</v>
       </c>
@@ -5044,31 +5044,31 @@
       <c r="R15" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="S15" s="120"/>
+      <c r="S15" s="79"/>
     </row>
     <row r="16" spans="2:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="101"/>
-      <c r="C16" s="89" t="s">
+      <c r="B16" s="121"/>
+      <c r="C16" s="139" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="D16" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="84" t="s">
+      <c r="E16" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="110" t="s">
+      <c r="F16" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110" t="s">
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="133"/>
-      <c r="M16" s="101"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="121"/>
       <c r="N16" s="62" t="s">
         <v>332</v>
       </c>
@@ -5080,29 +5080,29 @@
       </c>
       <c r="Q16" s="62"/>
       <c r="R16" s="62"/>
-      <c r="S16" s="120" t="s">
+      <c r="S16" s="79" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="101"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="110" t="s">
+      <c r="B17" s="121"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="G17" s="110" t="s">
+      <c r="G17" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="H17" s="110" t="s">
+      <c r="H17" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="I17" s="110"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="101"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="121"/>
       <c r="N17" s="62"/>
       <c r="O17" s="62"/>
       <c r="P17" s="62"/>
@@ -5112,31 +5112,31 @@
       <c r="R17" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="S17" s="120"/>
+      <c r="S17" s="79"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B18" s="101"/>
-      <c r="C18" s="89"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="47" t="s">
         <v>123</v>
       </c>
       <c r="E18" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="110" t="s">
+      <c r="F18" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110" t="s">
+      <c r="G18" s="69"/>
+      <c r="H18" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="I18" s="110" t="s">
+      <c r="I18" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="101"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="121"/>
       <c r="N18" s="62"/>
       <c r="O18" s="62"/>
       <c r="P18" s="62"/>
@@ -5144,35 +5144,35 @@
       <c r="R18" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="S18" s="120" t="s">
+      <c r="S18" s="79" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="101"/>
-      <c r="C19" s="89"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="139"/>
       <c r="D19" s="47" t="s">
         <v>124</v>
       </c>
       <c r="E19" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="110" t="s">
+      <c r="F19" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="G19" s="110" t="s">
+      <c r="G19" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="H19" s="110" t="s">
+      <c r="H19" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="I19" s="110" t="s">
+      <c r="I19" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="133"/>
-      <c r="M19" s="101"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="121"/>
       <c r="N19" s="62"/>
       <c r="O19" s="62"/>
       <c r="P19" s="62"/>
@@ -5182,35 +5182,35 @@
       <c r="R19" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="S19" s="120" t="s">
+      <c r="S19" s="79" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="20" spans="2:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="101"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="84" t="s">
+      <c r="B20" s="121"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="84" t="s">
+      <c r="E20" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="110" t="s">
+      <c r="F20" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="110" t="s">
+      <c r="G20" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="H20" s="110" t="s">
+      <c r="H20" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="I20" s="110" t="s">
+      <c r="I20" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="133"/>
-      <c r="M20" s="101"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="121"/>
       <c r="N20" s="62"/>
       <c r="O20" s="62"/>
       <c r="P20" s="62"/>
@@ -5220,29 +5220,29 @@
       <c r="R20" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="S20" s="120" t="s">
+      <c r="S20" s="79" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="21" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="101"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="110" t="s">
+      <c r="B21" s="121"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="G21" s="110" t="s">
+      <c r="G21" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="H21" s="110" t="s">
+      <c r="H21" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="I21" s="110"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="133"/>
-      <c r="M21" s="101"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="121"/>
       <c r="N21" s="62"/>
       <c r="O21" s="62"/>
       <c r="P21" s="62"/>
@@ -5252,31 +5252,31 @@
       <c r="R21" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="S21" s="120"/>
+      <c r="S21" s="79"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B22" s="102"/>
-      <c r="C22" s="89"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="139"/>
       <c r="D22" s="47" t="s">
         <v>126</v>
       </c>
       <c r="E22" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="F22" s="110" t="s">
+      <c r="F22" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="G22" s="110" t="s">
+      <c r="G22" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="H22" s="110" t="s">
+      <c r="H22" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="I22" s="110"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="102"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="122"/>
       <c r="N22" s="62"/>
       <c r="O22" s="62"/>
       <c r="P22" s="62"/>
@@ -5286,13 +5286,13 @@
       <c r="R22" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="S22" s="120"/>
+      <c r="S22" s="79"/>
     </row>
     <row r="23" spans="2:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="133" t="s">
         <v>205</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="133" t="s">
         <v>167</v>
       </c>
       <c r="D23" s="48" t="s">
@@ -5301,22 +5301,22 @@
       <c r="E23" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="111" t="s">
+      <c r="F23" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111" t="s">
+      <c r="G23" s="70"/>
+      <c r="H23" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="I23" s="111" t="s">
+      <c r="I23" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="136" t="s">
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="107" t="s">
         <v>205</v>
       </c>
-      <c r="M23" s="92" t="s">
+      <c r="M23" s="110" t="s">
         <v>274</v>
       </c>
       <c r="N23" s="61" t="s">
@@ -5332,35 +5332,35 @@
       <c r="R23" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="S23" s="121" t="s">
+      <c r="S23" s="80" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="24" spans="2:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="82"/>
-      <c r="C24" s="81"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="133"/>
       <c r="D24" s="48" t="s">
         <v>164</v>
       </c>
       <c r="E24" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="111" t="s">
+      <c r="F24" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="G24" s="111" t="s">
+      <c r="G24" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="111" t="s">
+      <c r="H24" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="I24" s="111" t="s">
+      <c r="I24" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="137"/>
-      <c r="M24" s="93"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="111"/>
       <c r="N24" s="61" t="s">
         <v>277</v>
       </c>
@@ -5376,33 +5376,33 @@
       <c r="R24" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="S24" s="121" t="s">
+      <c r="S24" s="80" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="82"/>
-      <c r="C25" s="81"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="133"/>
       <c r="D25" s="48" t="s">
         <v>165</v>
       </c>
       <c r="E25" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="111" t="s">
+      <c r="F25" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111" t="s">
+      <c r="G25" s="70"/>
+      <c r="H25" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="I25" s="111" t="s">
+      <c r="I25" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="93"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="111"/>
       <c r="N25" s="61" t="s">
         <v>278</v>
       </c>
@@ -5416,55 +5416,55 @@
       <c r="R25" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="S25" s="121" t="s">
+      <c r="S25" s="80" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="82"/>
-      <c r="C26" s="81"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="133"/>
       <c r="D26" s="61"/>
       <c r="E26" s="61"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="137"/>
-      <c r="M26" s="93"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="111"/>
       <c r="N26" s="61"/>
       <c r="O26" s="61"/>
       <c r="P26" s="61"/>
       <c r="Q26" s="61"/>
       <c r="R26" s="61"/>
-      <c r="S26" s="121"/>
+      <c r="S26" s="80"/>
     </row>
     <row r="27" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="82"/>
-      <c r="C27" s="81"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="133"/>
       <c r="D27" s="48" t="s">
         <v>166</v>
       </c>
       <c r="E27" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="F27" s="111" t="s">
+      <c r="F27" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="G27" s="111" t="s">
+      <c r="G27" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="H27" s="111" t="s">
+      <c r="H27" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="I27" s="111" t="s">
+      <c r="I27" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="137"/>
-      <c r="M27" s="94"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="112"/>
       <c r="N27" s="61"/>
       <c r="O27" s="61"/>
       <c r="P27" s="61"/>
@@ -5474,13 +5474,13 @@
       <c r="R27" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="S27" s="121" t="s">
+      <c r="S27" s="80" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="28" spans="2:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="82"/>
-      <c r="C28" s="92" t="s">
+      <c r="B28" s="134"/>
+      <c r="C28" s="110" t="s">
         <v>175</v>
       </c>
       <c r="D28" s="48" t="s">
@@ -5489,20 +5489,20 @@
       <c r="E28" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="F28" s="111" t="s">
+      <c r="F28" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="G28" s="111" t="s">
+      <c r="G28" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="H28" s="111" t="s">
+      <c r="H28" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="I28" s="111"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="92" t="s">
+      <c r="I28" s="70"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="110" t="s">
         <v>275</v>
       </c>
       <c r="N28" s="61" t="s">
@@ -5520,31 +5520,31 @@
       <c r="R28" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="S28" s="121"/>
+      <c r="S28" s="80"/>
     </row>
     <row r="29" spans="2:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="82"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="111"/>
       <c r="D29" s="48" t="s">
         <v>171</v>
       </c>
       <c r="E29" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="F29" s="111" t="s">
+      <c r="F29" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111" t="s">
+      <c r="G29" s="70"/>
+      <c r="H29" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="I29" s="111" t="s">
+      <c r="I29" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="137"/>
-      <c r="M29" s="93"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="111"/>
       <c r="N29" s="61" t="s">
         <v>284</v>
       </c>
@@ -5558,33 +5558,33 @@
       <c r="R29" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="S29" s="121" t="s">
+      <c r="S29" s="80" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B30" s="82"/>
-      <c r="C30" s="93"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="111"/>
       <c r="D30" s="48" t="s">
         <v>172</v>
       </c>
       <c r="E30" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="F30" s="111" t="s">
+      <c r="F30" s="70" t="s">
         <v>193</v>
       </c>
-      <c r="G30" s="111" t="s">
+      <c r="G30" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="H30" s="111" t="s">
+      <c r="H30" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="I30" s="111"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="137"/>
-      <c r="M30" s="93"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="111"/>
       <c r="N30" s="61" t="s">
         <v>286</v>
       </c>
@@ -5600,31 +5600,31 @@
       <c r="R30" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="S30" s="121"/>
+      <c r="S30" s="80"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B31" s="82"/>
-      <c r="C31" s="93"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="111"/>
       <c r="D31" s="48" t="s">
         <v>173</v>
       </c>
       <c r="E31" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="F31" s="111" t="s">
+      <c r="F31" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="G31" s="111" t="s">
+      <c r="G31" s="70" t="s">
         <v>233</v>
       </c>
-      <c r="H31" s="111" t="s">
+      <c r="H31" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="I31" s="111"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="137"/>
-      <c r="M31" s="93"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="111"/>
       <c r="N31" s="61" t="s">
         <v>288</v>
       </c>
@@ -5640,29 +5640,29 @@
       <c r="R31" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="S31" s="121"/>
+      <c r="S31" s="80"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="82"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="90" t="s">
+      <c r="B32" s="134"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="140" t="s">
         <v>174</v>
       </c>
       <c r="E32" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="F32" s="111" t="s">
+      <c r="F32" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111" t="s">
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="137"/>
-      <c r="M32" s="93"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="111"/>
       <c r="N32" s="61" t="s">
         <v>296</v>
       </c>
@@ -5674,23 +5674,23 @@
       </c>
       <c r="Q32" s="61"/>
       <c r="R32" s="61"/>
-      <c r="S32" s="121" t="s">
+      <c r="S32" s="80" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B33" s="82"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="139"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="141"/>
       <c r="E33" s="61"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="137"/>
-      <c r="M33" s="93"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="111"/>
       <c r="N33" s="61" t="s">
         <v>312</v>
       </c>
@@ -5702,31 +5702,31 @@
       </c>
       <c r="Q33" s="61"/>
       <c r="R33" s="61"/>
-      <c r="S33" s="121"/>
+      <c r="S33" s="80"/>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B34" s="82"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="91"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="142"/>
       <c r="E34" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="F34" s="111" t="s">
+      <c r="F34" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="G34" s="111" t="s">
+      <c r="G34" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="H34" s="111" t="s">
+      <c r="H34" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="I34" s="111" t="s">
+      <c r="I34" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="J34" s="108"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="138"/>
-      <c r="M34" s="94"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="109"/>
+      <c r="M34" s="112"/>
       <c r="N34" s="61" t="s">
         <v>313</v>
       </c>
@@ -5742,37 +5742,37 @@
       <c r="R34" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="S34" s="121" t="s">
+      <c r="S34" s="80" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="35" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="130" t="s">
         <v>219</v>
       </c>
-      <c r="D35" s="98" t="s">
+      <c r="D35" s="129" t="s">
         <v>206</v>
       </c>
-      <c r="E35" s="98" t="s">
+      <c r="E35" s="129" t="s">
         <v>210</v>
       </c>
-      <c r="F35" s="112" t="s">
+      <c r="F35" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="G35" s="112"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="112" t="s">
+      <c r="G35" s="71"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="130" t="s">
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="113" t="s">
         <v>273</v>
       </c>
-      <c r="M35" s="126" t="s">
+      <c r="M35" s="104" t="s">
         <v>219</v>
       </c>
       <c r="N35" s="53" t="s">
@@ -5785,30 +5785,30 @@
         <v>311</v>
       </c>
       <c r="Q35" s="53"/>
-      <c r="R35" s="122"/>
-      <c r="S35" s="123" t="s">
+      <c r="R35" s="81"/>
+      <c r="S35" s="82" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="112" t="s">
+      <c r="B36" s="129"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="G36" s="112" t="s">
+      <c r="G36" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="H36" s="112" t="s">
+      <c r="H36" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="I36" s="112"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="108"/>
-      <c r="L36" s="131"/>
-      <c r="M36" s="127"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="105"/>
       <c r="N36" s="53"/>
       <c r="O36" s="53"/>
       <c r="P36" s="53"/>
@@ -5818,31 +5818,31 @@
       <c r="R36" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="S36" s="123"/>
+      <c r="S36" s="82"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
       <c r="D37" s="49" t="s">
         <v>207</v>
       </c>
       <c r="E37" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="F37" s="112" t="s">
+      <c r="F37" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="G37" s="112"/>
-      <c r="H37" s="112" t="s">
+      <c r="G37" s="71"/>
+      <c r="H37" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="I37" s="112" t="s">
+      <c r="I37" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="J37" s="108"/>
-      <c r="K37" s="108"/>
-      <c r="L37" s="131"/>
-      <c r="M37" s="127"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="105"/>
       <c r="N37" s="53" t="s">
         <v>207</v>
       </c>
@@ -5856,35 +5856,35 @@
       <c r="R37" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="S37" s="123" t="s">
+      <c r="S37" s="82" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
+      <c r="B38" s="129"/>
+      <c r="C38" s="129"/>
       <c r="D38" s="49" t="s">
         <v>208</v>
       </c>
       <c r="E38" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="F38" s="112" t="s">
+      <c r="F38" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="G38" s="112" t="s">
+      <c r="G38" s="71" t="s">
         <v>234</v>
       </c>
-      <c r="H38" s="112" t="s">
+      <c r="H38" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="I38" s="112" t="s">
+      <c r="I38" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="J38" s="108"/>
-      <c r="K38" s="108"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="127"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="105"/>
       <c r="N38" s="53" t="s">
         <v>208</v>
       </c>
@@ -5900,31 +5900,31 @@
       <c r="R38" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="S38" s="123" t="s">
+      <c r="S38" s="82" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="39" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="98"/>
-      <c r="C39" s="98"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
       <c r="D39" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="E39" s="99" t="s">
+      <c r="E39" s="131" t="s">
         <v>217</v>
       </c>
-      <c r="F39" s="112" t="s">
+      <c r="F39" s="71" t="s">
         <v>235</v>
       </c>
-      <c r="G39" s="112"/>
-      <c r="H39" s="112"/>
-      <c r="I39" s="112" t="s">
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71" t="s">
         <v>237</v>
       </c>
-      <c r="J39" s="108"/>
-      <c r="K39" s="108"/>
-      <c r="L39" s="131"/>
-      <c r="M39" s="127"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="114"/>
+      <c r="M39" s="105"/>
       <c r="N39" s="55" t="s">
         <v>209</v>
       </c>
@@ -5936,29 +5936,29 @@
       </c>
       <c r="Q39" s="53"/>
       <c r="R39" s="53"/>
-      <c r="S39" s="123" t="s">
+      <c r="S39" s="82" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B40" s="98"/>
-      <c r="C40" s="98"/>
+      <c r="B40" s="129"/>
+      <c r="C40" s="129"/>
       <c r="D40" s="49"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="112" t="s">
+      <c r="E40" s="132"/>
+      <c r="F40" s="71" t="s">
         <v>236</v>
       </c>
-      <c r="G40" s="112" t="s">
+      <c r="G40" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="H40" s="112" t="s">
+      <c r="H40" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="I40" s="112"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="131"/>
-      <c r="M40" s="127"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="105"/>
       <c r="N40" s="56"/>
       <c r="O40" s="56"/>
       <c r="P40" s="53" t="s">
@@ -5970,21 +5970,21 @@
       <c r="R40" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="S40" s="123"/>
+      <c r="S40" s="82"/>
     </row>
     <row r="41" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
+      <c r="B41" s="129"/>
+      <c r="C41" s="129"/>
       <c r="D41" s="53"/>
       <c r="E41" s="56"/>
-      <c r="F41" s="112"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="131"/>
-      <c r="M41" s="127"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="105"/>
       <c r="N41" s="56" t="s">
         <v>297</v>
       </c>
@@ -5996,21 +5996,21 @@
       </c>
       <c r="Q41" s="53"/>
       <c r="R41" s="53"/>
-      <c r="S41" s="123"/>
+      <c r="S41" s="82"/>
     </row>
     <row r="42" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
+      <c r="B42" s="129"/>
+      <c r="C42" s="129"/>
       <c r="D42" s="53"/>
       <c r="E42" s="56"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="112"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="108"/>
-      <c r="L42" s="131"/>
-      <c r="M42" s="127"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="105"/>
       <c r="N42" s="56" t="s">
         <v>300</v>
       </c>
@@ -6022,31 +6022,31 @@
       </c>
       <c r="Q42" s="53"/>
       <c r="R42" s="53"/>
-      <c r="S42" s="123"/>
+      <c r="S42" s="82"/>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
+      <c r="B43" s="129"/>
+      <c r="C43" s="129"/>
       <c r="D43" s="49" t="s">
         <v>213</v>
       </c>
       <c r="E43" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="F43" s="112" t="s">
+      <c r="F43" s="71" t="s">
         <v>243</v>
       </c>
-      <c r="G43" s="112" t="s">
+      <c r="G43" s="71" t="s">
         <v>234</v>
       </c>
-      <c r="H43" s="112" t="s">
+      <c r="H43" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="I43" s="112"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="131"/>
-      <c r="M43" s="127"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="105"/>
       <c r="N43" s="53" t="s">
         <v>213</v>
       </c>
@@ -6062,33 +6062,33 @@
       <c r="R43" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="S43" s="123"/>
+      <c r="S43" s="82"/>
     </row>
     <row r="44" spans="2:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="99" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="131" t="s">
         <v>214</v>
       </c>
-      <c r="E44" s="99" t="s">
+      <c r="E44" s="131" t="s">
         <v>215</v>
       </c>
-      <c r="F44" s="112" t="s">
+      <c r="F44" s="71" t="s">
         <v>245</v>
       </c>
-      <c r="G44" s="112" t="s">
+      <c r="G44" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="H44" s="112" t="s">
+      <c r="H44" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="I44" s="112" t="s">
+      <c r="I44" s="71" t="s">
         <v>247</v>
       </c>
-      <c r="J44" s="108"/>
-      <c r="K44" s="108"/>
-      <c r="L44" s="131"/>
-      <c r="M44" s="127"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="114"/>
+      <c r="M44" s="105"/>
       <c r="N44" s="55" t="s">
         <v>214</v>
       </c>
@@ -6104,29 +6104,29 @@
       <c r="R44" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="S44" s="123" t="s">
+      <c r="S44" s="82" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B45" s="98"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="112" t="s">
+      <c r="B45" s="129"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="71" t="s">
         <v>246</v>
       </c>
-      <c r="G45" s="112" t="s">
+      <c r="G45" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="H45" s="112" t="s">
+      <c r="H45" s="71" t="s">
         <v>248</v>
       </c>
-      <c r="I45" s="112"/>
-      <c r="J45" s="108"/>
-      <c r="K45" s="108"/>
-      <c r="L45" s="131"/>
-      <c r="M45" s="129"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="116"/>
       <c r="N45" s="56"/>
       <c r="O45" s="56"/>
       <c r="P45" s="53" t="s">
@@ -6138,11 +6138,11 @@
       <c r="R45" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="S45" s="123"/>
+      <c r="S45" s="82"/>
     </row>
     <row r="46" spans="2:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="98"/>
-      <c r="C46" s="83" t="s">
+      <c r="B46" s="129"/>
+      <c r="C46" s="130" t="s">
         <v>176</v>
       </c>
       <c r="D46" s="49" t="s">
@@ -6151,22 +6151,22 @@
       <c r="E46" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="F46" s="112" t="s">
+      <c r="F46" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="G46" s="112" t="s">
+      <c r="G46" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="H46" s="112" t="s">
+      <c r="H46" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="I46" s="112" t="s">
+      <c r="I46" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="J46" s="108"/>
-      <c r="K46" s="108"/>
-      <c r="L46" s="131"/>
-      <c r="M46" s="126" t="s">
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="104" t="s">
         <v>295</v>
       </c>
       <c r="N46" s="53" t="s">
@@ -6184,33 +6184,33 @@
       <c r="R46" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="S46" s="123" t="s">
+      <c r="S46" s="82" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B47" s="98"/>
-      <c r="C47" s="83"/>
+      <c r="B47" s="129"/>
+      <c r="C47" s="130"/>
       <c r="D47" s="49" t="s">
         <v>95</v>
       </c>
       <c r="E47" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F47" s="112" t="s">
+      <c r="F47" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="G47" s="112"/>
-      <c r="H47" s="112" t="s">
+      <c r="G47" s="71"/>
+      <c r="H47" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="I47" s="112" t="s">
+      <c r="I47" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="J47" s="108"/>
-      <c r="K47" s="108"/>
-      <c r="L47" s="131"/>
-      <c r="M47" s="127"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="114"/>
+      <c r="M47" s="105"/>
       <c r="N47" s="53" t="s">
         <v>293</v>
       </c>
@@ -6224,467 +6224,469 @@
       <c r="R47" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="S47" s="123" t="s">
+      <c r="S47" s="82" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="48" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="98"/>
-      <c r="C48" s="83"/>
+      <c r="B48" s="129"/>
+      <c r="C48" s="130"/>
       <c r="D48" s="49" t="s">
         <v>178</v>
       </c>
       <c r="E48" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="F48" s="112" t="s">
+      <c r="F48" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="G48" s="112" t="s">
+      <c r="G48" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="H48" s="112" t="s">
+      <c r="H48" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="I48" s="112" t="s">
+      <c r="I48" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="J48" s="108"/>
-      <c r="K48" s="108"/>
-      <c r="L48" s="132"/>
-      <c r="M48" s="128"/>
-      <c r="N48" s="124" t="s">
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="115"/>
+      <c r="M48" s="106"/>
+      <c r="N48" s="83" t="s">
         <v>294</v>
       </c>
-      <c r="O48" s="124"/>
-      <c r="P48" s="124" t="s">
+      <c r="O48" s="83"/>
+      <c r="P48" s="83" t="s">
         <v>327</v>
       </c>
-      <c r="Q48" s="124" t="s">
+      <c r="Q48" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="R48" s="124" t="s">
+      <c r="R48" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="S48" s="125" t="s">
+      <c r="S48" s="84" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="49" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L49" s="114"/>
-      <c r="M49" s="114"/>
-      <c r="N49" s="114"/>
-      <c r="O49" s="114"/>
-      <c r="P49" s="114"/>
-      <c r="Q49" s="114"/>
-      <c r="R49" s="114"/>
-      <c r="S49" s="114"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="73"/>
+      <c r="P49" s="73"/>
+      <c r="Q49" s="73"/>
+      <c r="R49" s="73"/>
+      <c r="S49" s="73"/>
     </row>
     <row r="50" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L50" s="114"/>
-      <c r="M50" s="114"/>
-      <c r="N50" s="114"/>
-      <c r="O50" s="114"/>
-      <c r="P50" s="114"/>
-      <c r="Q50" s="114"/>
-      <c r="R50" s="114"/>
-      <c r="S50" s="114"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="73"/>
+      <c r="S50" s="73"/>
     </row>
     <row r="51" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L51" s="114"/>
-      <c r="M51" s="114"/>
-      <c r="N51" s="114"/>
-      <c r="O51" s="114"/>
-      <c r="P51" s="114"/>
-      <c r="Q51" s="114"/>
-      <c r="R51" s="114"/>
-      <c r="S51" s="114"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="73"/>
+      <c r="O51" s="73"/>
+      <c r="P51" s="73"/>
+      <c r="Q51" s="73"/>
+      <c r="R51" s="73"/>
+      <c r="S51" s="73"/>
     </row>
     <row r="52" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L52" s="114"/>
-      <c r="M52" s="114"/>
-      <c r="N52" s="114"/>
-      <c r="O52" s="114"/>
-      <c r="P52" s="114"/>
-      <c r="Q52" s="114"/>
-      <c r="R52" s="114"/>
-      <c r="S52" s="114"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="73"/>
+      <c r="P52" s="73"/>
+      <c r="Q52" s="73"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="73"/>
     </row>
     <row r="53" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L53" s="114"/>
-      <c r="M53" s="114"/>
-      <c r="N53" s="114"/>
-      <c r="O53" s="114"/>
-      <c r="P53" s="114"/>
-      <c r="Q53" s="114"/>
-      <c r="R53" s="114"/>
-      <c r="S53" s="114"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="73"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="73"/>
+      <c r="R53" s="73"/>
+      <c r="S53" s="73"/>
     </row>
     <row r="54" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L54" s="114"/>
-      <c r="M54" s="114"/>
-      <c r="N54" s="114"/>
-      <c r="O54" s="114"/>
-      <c r="P54" s="114"/>
-      <c r="Q54" s="114"/>
-      <c r="R54" s="114"/>
-      <c r="S54" s="114"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="73"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
+      <c r="Q54" s="73"/>
+      <c r="R54" s="73"/>
+      <c r="S54" s="73"/>
     </row>
     <row r="55" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L55" s="114"/>
-      <c r="M55" s="114"/>
-      <c r="N55" s="114"/>
-      <c r="O55" s="114"/>
-      <c r="P55" s="114"/>
-      <c r="Q55" s="114"/>
-      <c r="R55" s="114"/>
-      <c r="S55" s="114"/>
+      <c r="L55" s="73"/>
+      <c r="M55" s="73"/>
+      <c r="N55" s="73"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="73"/>
+      <c r="Q55" s="73"/>
+      <c r="R55" s="73"/>
+      <c r="S55" s="73"/>
     </row>
     <row r="56" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L56" s="114"/>
-      <c r="M56" s="114"/>
-      <c r="N56" s="114"/>
-      <c r="O56" s="114"/>
-      <c r="P56" s="114"/>
-      <c r="Q56" s="114"/>
-      <c r="R56" s="114"/>
-      <c r="S56" s="114"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
+      <c r="Q56" s="73"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="73"/>
     </row>
     <row r="57" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L57" s="114"/>
-      <c r="M57" s="114"/>
-      <c r="N57" s="114"/>
-      <c r="O57" s="114"/>
-      <c r="P57" s="114"/>
-      <c r="Q57" s="114"/>
-      <c r="R57" s="114"/>
-      <c r="S57" s="114"/>
+      <c r="L57" s="73"/>
+      <c r="M57" s="73"/>
+      <c r="N57" s="73"/>
+      <c r="O57" s="73"/>
+      <c r="P57" s="73"/>
+      <c r="Q57" s="73"/>
+      <c r="R57" s="73"/>
+      <c r="S57" s="73"/>
     </row>
     <row r="58" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L58" s="114"/>
-      <c r="M58" s="114"/>
-      <c r="N58" s="114"/>
-      <c r="O58" s="114"/>
-      <c r="P58" s="114"/>
-      <c r="Q58" s="114"/>
-      <c r="R58" s="114"/>
-      <c r="S58" s="114"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="73"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="73"/>
+      <c r="Q58" s="73"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="73"/>
     </row>
     <row r="59" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L59" s="114"/>
-      <c r="M59" s="114"/>
-      <c r="N59" s="114"/>
-      <c r="O59" s="114"/>
-      <c r="P59" s="114"/>
-      <c r="Q59" s="114"/>
-      <c r="R59" s="114"/>
-      <c r="S59" s="114"/>
+      <c r="L59" s="73"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="73"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="73"/>
+      <c r="Q59" s="73"/>
+      <c r="R59" s="73"/>
+      <c r="S59" s="73"/>
     </row>
     <row r="60" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L60" s="114"/>
-      <c r="M60" s="114"/>
-      <c r="N60" s="114"/>
-      <c r="O60" s="114"/>
-      <c r="P60" s="114"/>
-      <c r="Q60" s="114"/>
-      <c r="R60" s="114"/>
-      <c r="S60" s="114"/>
+      <c r="L60" s="73"/>
+      <c r="M60" s="73"/>
+      <c r="N60" s="73"/>
+      <c r="O60" s="73"/>
+      <c r="P60" s="73"/>
+      <c r="Q60" s="73"/>
+      <c r="R60" s="73"/>
+      <c r="S60" s="73"/>
     </row>
     <row r="61" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L61" s="114"/>
-      <c r="M61" s="114"/>
-      <c r="N61" s="114"/>
-      <c r="O61" s="114"/>
-      <c r="P61" s="114"/>
-      <c r="Q61" s="114"/>
-      <c r="R61" s="114"/>
-      <c r="S61" s="114"/>
+      <c r="L61" s="73"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="73"/>
+      <c r="O61" s="73"/>
+      <c r="P61" s="73"/>
+      <c r="Q61" s="73"/>
+      <c r="R61" s="73"/>
+      <c r="S61" s="73"/>
     </row>
     <row r="62" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L62" s="114"/>
-      <c r="M62" s="114"/>
-      <c r="N62" s="114"/>
-      <c r="O62" s="114"/>
-      <c r="P62" s="114"/>
-      <c r="Q62" s="114"/>
-      <c r="R62" s="114"/>
-      <c r="S62" s="114"/>
+      <c r="L62" s="73"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="73"/>
+      <c r="O62" s="73"/>
+      <c r="P62" s="73"/>
+      <c r="Q62" s="73"/>
+      <c r="R62" s="73"/>
+      <c r="S62" s="73"/>
     </row>
     <row r="63" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L63" s="114"/>
-      <c r="M63" s="114"/>
-      <c r="N63" s="114"/>
-      <c r="O63" s="114"/>
-      <c r="P63" s="114"/>
-      <c r="Q63" s="114"/>
-      <c r="R63" s="114"/>
-      <c r="S63" s="114"/>
+      <c r="L63" s="73"/>
+      <c r="M63" s="73"/>
+      <c r="N63" s="73"/>
+      <c r="O63" s="73"/>
+      <c r="P63" s="73"/>
+      <c r="Q63" s="73"/>
+      <c r="R63" s="73"/>
+      <c r="S63" s="73"/>
     </row>
     <row r="64" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L64" s="114"/>
-      <c r="M64" s="114"/>
-      <c r="N64" s="114"/>
-      <c r="O64" s="114"/>
-      <c r="P64" s="114"/>
-      <c r="Q64" s="114"/>
-      <c r="R64" s="114"/>
-      <c r="S64" s="114"/>
+      <c r="L64" s="73"/>
+      <c r="M64" s="73"/>
+      <c r="N64" s="73"/>
+      <c r="O64" s="73"/>
+      <c r="P64" s="73"/>
+      <c r="Q64" s="73"/>
+      <c r="R64" s="73"/>
+      <c r="S64" s="73"/>
     </row>
     <row r="65" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L65" s="114"/>
-      <c r="M65" s="114"/>
-      <c r="N65" s="114"/>
-      <c r="O65" s="114"/>
-      <c r="P65" s="114"/>
-      <c r="Q65" s="114"/>
-      <c r="R65" s="114"/>
-      <c r="S65" s="114"/>
+      <c r="L65" s="73"/>
+      <c r="M65" s="73"/>
+      <c r="N65" s="73"/>
+      <c r="O65" s="73"/>
+      <c r="P65" s="73"/>
+      <c r="Q65" s="73"/>
+      <c r="R65" s="73"/>
+      <c r="S65" s="73"/>
     </row>
     <row r="66" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L66" s="114"/>
-      <c r="M66" s="114"/>
-      <c r="N66" s="114"/>
-      <c r="O66" s="114"/>
-      <c r="P66" s="114"/>
-      <c r="Q66" s="114"/>
-      <c r="R66" s="114"/>
-      <c r="S66" s="114"/>
+      <c r="L66" s="73"/>
+      <c r="M66" s="73"/>
+      <c r="N66" s="73"/>
+      <c r="O66" s="73"/>
+      <c r="P66" s="73"/>
+      <c r="Q66" s="73"/>
+      <c r="R66" s="73"/>
+      <c r="S66" s="73"/>
     </row>
     <row r="67" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L67" s="114"/>
-      <c r="M67" s="114"/>
-      <c r="N67" s="114"/>
-      <c r="O67" s="114"/>
-      <c r="P67" s="114"/>
-      <c r="Q67" s="114"/>
-      <c r="R67" s="114"/>
-      <c r="S67" s="114"/>
+      <c r="L67" s="73"/>
+      <c r="M67" s="73"/>
+      <c r="N67" s="73"/>
+      <c r="O67" s="73"/>
+      <c r="P67" s="73"/>
+      <c r="Q67" s="73"/>
+      <c r="R67" s="73"/>
+      <c r="S67" s="73"/>
     </row>
     <row r="68" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L68" s="114"/>
-      <c r="M68" s="114"/>
-      <c r="N68" s="114"/>
-      <c r="O68" s="114"/>
-      <c r="P68" s="114"/>
-      <c r="Q68" s="114"/>
-      <c r="R68" s="114"/>
-      <c r="S68" s="114"/>
+      <c r="L68" s="73"/>
+      <c r="M68" s="73"/>
+      <c r="N68" s="73"/>
+      <c r="O68" s="73"/>
+      <c r="P68" s="73"/>
+      <c r="Q68" s="73"/>
+      <c r="R68" s="73"/>
+      <c r="S68" s="73"/>
     </row>
     <row r="69" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L69" s="114"/>
-      <c r="M69" s="114"/>
-      <c r="N69" s="114"/>
-      <c r="O69" s="114"/>
-      <c r="P69" s="114"/>
-      <c r="Q69" s="114"/>
-      <c r="R69" s="114"/>
-      <c r="S69" s="114"/>
+      <c r="L69" s="73"/>
+      <c r="M69" s="73"/>
+      <c r="N69" s="73"/>
+      <c r="O69" s="73"/>
+      <c r="P69" s="73"/>
+      <c r="Q69" s="73"/>
+      <c r="R69" s="73"/>
+      <c r="S69" s="73"/>
     </row>
     <row r="70" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L70" s="114"/>
-      <c r="M70" s="114"/>
-      <c r="N70" s="114"/>
-      <c r="O70" s="114"/>
-      <c r="P70" s="114"/>
-      <c r="Q70" s="114"/>
-      <c r="R70" s="114"/>
-      <c r="S70" s="114"/>
+      <c r="L70" s="73"/>
+      <c r="M70" s="73"/>
+      <c r="N70" s="73"/>
+      <c r="O70" s="73"/>
+      <c r="P70" s="73"/>
+      <c r="Q70" s="73"/>
+      <c r="R70" s="73"/>
+      <c r="S70" s="73"/>
     </row>
     <row r="71" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L71" s="114"/>
-      <c r="M71" s="114"/>
-      <c r="N71" s="114"/>
-      <c r="O71" s="114"/>
-      <c r="P71" s="114"/>
-      <c r="Q71" s="114"/>
-      <c r="R71" s="114"/>
-      <c r="S71" s="114"/>
+      <c r="L71" s="73"/>
+      <c r="M71" s="73"/>
+      <c r="N71" s="73"/>
+      <c r="O71" s="73"/>
+      <c r="P71" s="73"/>
+      <c r="Q71" s="73"/>
+      <c r="R71" s="73"/>
+      <c r="S71" s="73"/>
     </row>
     <row r="72" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L72" s="114"/>
-      <c r="M72" s="114"/>
-      <c r="N72" s="114"/>
-      <c r="O72" s="114"/>
-      <c r="P72" s="114"/>
-      <c r="Q72" s="114"/>
-      <c r="R72" s="114"/>
-      <c r="S72" s="114"/>
+      <c r="L72" s="73"/>
+      <c r="M72" s="73"/>
+      <c r="N72" s="73"/>
+      <c r="O72" s="73"/>
+      <c r="P72" s="73"/>
+      <c r="Q72" s="73"/>
+      <c r="R72" s="73"/>
+      <c r="S72" s="73"/>
     </row>
     <row r="73" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L73" s="114"/>
-      <c r="M73" s="114"/>
-      <c r="N73" s="114"/>
-      <c r="O73" s="114"/>
-      <c r="P73" s="114"/>
-      <c r="Q73" s="114"/>
-      <c r="R73" s="114"/>
-      <c r="S73" s="114"/>
+      <c r="L73" s="73"/>
+      <c r="M73" s="73"/>
+      <c r="N73" s="73"/>
+      <c r="O73" s="73"/>
+      <c r="P73" s="73"/>
+      <c r="Q73" s="73"/>
+      <c r="R73" s="73"/>
+      <c r="S73" s="73"/>
     </row>
     <row r="74" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L74" s="114"/>
-      <c r="M74" s="114"/>
-      <c r="N74" s="114"/>
-      <c r="O74" s="114"/>
-      <c r="P74" s="114"/>
-      <c r="Q74" s="114"/>
-      <c r="R74" s="114"/>
-      <c r="S74" s="114"/>
+      <c r="L74" s="73"/>
+      <c r="M74" s="73"/>
+      <c r="N74" s="73"/>
+      <c r="O74" s="73"/>
+      <c r="P74" s="73"/>
+      <c r="Q74" s="73"/>
+      <c r="R74" s="73"/>
+      <c r="S74" s="73"/>
     </row>
     <row r="75" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L75" s="114"/>
-      <c r="M75" s="114"/>
-      <c r="N75" s="114"/>
-      <c r="O75" s="114"/>
-      <c r="P75" s="114"/>
-      <c r="Q75" s="114"/>
-      <c r="R75" s="114"/>
-      <c r="S75" s="114"/>
+      <c r="L75" s="73"/>
+      <c r="M75" s="73"/>
+      <c r="N75" s="73"/>
+      <c r="O75" s="73"/>
+      <c r="P75" s="73"/>
+      <c r="Q75" s="73"/>
+      <c r="R75" s="73"/>
+      <c r="S75" s="73"/>
     </row>
     <row r="76" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L76" s="114"/>
-      <c r="M76" s="114"/>
-      <c r="N76" s="114"/>
-      <c r="O76" s="114"/>
-      <c r="P76" s="114"/>
-      <c r="Q76" s="114"/>
-      <c r="R76" s="114"/>
-      <c r="S76" s="114"/>
+      <c r="L76" s="73"/>
+      <c r="M76" s="73"/>
+      <c r="N76" s="73"/>
+      <c r="O76" s="73"/>
+      <c r="P76" s="73"/>
+      <c r="Q76" s="73"/>
+      <c r="R76" s="73"/>
+      <c r="S76" s="73"/>
     </row>
     <row r="77" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L77" s="114"/>
-      <c r="M77" s="114"/>
-      <c r="N77" s="114"/>
-      <c r="O77" s="114"/>
-      <c r="P77" s="114"/>
-      <c r="Q77" s="114"/>
-      <c r="R77" s="114"/>
-      <c r="S77" s="114"/>
+      <c r="L77" s="73"/>
+      <c r="M77" s="73"/>
+      <c r="N77" s="73"/>
+      <c r="O77" s="73"/>
+      <c r="P77" s="73"/>
+      <c r="Q77" s="73"/>
+      <c r="R77" s="73"/>
+      <c r="S77" s="73"/>
     </row>
     <row r="78" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L78" s="114"/>
-      <c r="M78" s="114"/>
-      <c r="N78" s="114"/>
-      <c r="O78" s="114"/>
-      <c r="P78" s="114"/>
-      <c r="Q78" s="114"/>
-      <c r="R78" s="114"/>
-      <c r="S78" s="114"/>
+      <c r="L78" s="73"/>
+      <c r="M78" s="73"/>
+      <c r="N78" s="73"/>
+      <c r="O78" s="73"/>
+      <c r="P78" s="73"/>
+      <c r="Q78" s="73"/>
+      <c r="R78" s="73"/>
+      <c r="S78" s="73"/>
     </row>
     <row r="79" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L79" s="114"/>
-      <c r="M79" s="114"/>
-      <c r="N79" s="114"/>
-      <c r="O79" s="114"/>
-      <c r="P79" s="114"/>
-      <c r="Q79" s="114"/>
-      <c r="R79" s="114"/>
-      <c r="S79" s="114"/>
+      <c r="L79" s="73"/>
+      <c r="M79" s="73"/>
+      <c r="N79" s="73"/>
+      <c r="O79" s="73"/>
+      <c r="P79" s="73"/>
+      <c r="Q79" s="73"/>
+      <c r="R79" s="73"/>
+      <c r="S79" s="73"/>
     </row>
     <row r="80" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L80" s="114"/>
-      <c r="M80" s="114"/>
-      <c r="N80" s="114"/>
-      <c r="O80" s="114"/>
-      <c r="P80" s="114"/>
-      <c r="Q80" s="114"/>
-      <c r="R80" s="114"/>
-      <c r="S80" s="114"/>
+      <c r="L80" s="73"/>
+      <c r="M80" s="73"/>
+      <c r="N80" s="73"/>
+      <c r="O80" s="73"/>
+      <c r="P80" s="73"/>
+      <c r="Q80" s="73"/>
+      <c r="R80" s="73"/>
+      <c r="S80" s="73"/>
     </row>
     <row r="81" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L81" s="114"/>
-      <c r="M81" s="114"/>
-      <c r="N81" s="114"/>
-      <c r="O81" s="114"/>
-      <c r="P81" s="114"/>
-      <c r="Q81" s="114"/>
-      <c r="R81" s="114"/>
-      <c r="S81" s="114"/>
+      <c r="L81" s="73"/>
+      <c r="M81" s="73"/>
+      <c r="N81" s="73"/>
+      <c r="O81" s="73"/>
+      <c r="P81" s="73"/>
+      <c r="Q81" s="73"/>
+      <c r="R81" s="73"/>
+      <c r="S81" s="73"/>
     </row>
     <row r="82" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L82" s="114"/>
-      <c r="M82" s="114"/>
-      <c r="N82" s="114"/>
-      <c r="O82" s="114"/>
-      <c r="P82" s="114"/>
-      <c r="Q82" s="114"/>
-      <c r="R82" s="114"/>
-      <c r="S82" s="114"/>
+      <c r="L82" s="73"/>
+      <c r="M82" s="73"/>
+      <c r="N82" s="73"/>
+      <c r="O82" s="73"/>
+      <c r="P82" s="73"/>
+      <c r="Q82" s="73"/>
+      <c r="R82" s="73"/>
+      <c r="S82" s="73"/>
     </row>
     <row r="83" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L83" s="114"/>
-      <c r="M83" s="114"/>
-      <c r="N83" s="114"/>
-      <c r="O83" s="114"/>
-      <c r="P83" s="114"/>
-      <c r="Q83" s="114"/>
-      <c r="R83" s="114"/>
-      <c r="S83" s="114"/>
+      <c r="L83" s="73"/>
+      <c r="M83" s="73"/>
+      <c r="N83" s="73"/>
+      <c r="O83" s="73"/>
+      <c r="P83" s="73"/>
+      <c r="Q83" s="73"/>
+      <c r="R83" s="73"/>
+      <c r="S83" s="73"/>
     </row>
     <row r="84" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L84" s="114"/>
-      <c r="M84" s="114"/>
-      <c r="N84" s="114"/>
-      <c r="O84" s="114"/>
-      <c r="P84" s="114"/>
-      <c r="Q84" s="114"/>
-      <c r="R84" s="114"/>
-      <c r="S84" s="114"/>
+      <c r="L84" s="73"/>
+      <c r="M84" s="73"/>
+      <c r="N84" s="73"/>
+      <c r="O84" s="73"/>
+      <c r="P84" s="73"/>
+      <c r="Q84" s="73"/>
+      <c r="R84" s="73"/>
+      <c r="S84" s="73"/>
     </row>
     <row r="85" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L85" s="114"/>
-      <c r="M85" s="114"/>
-      <c r="N85" s="114"/>
-      <c r="O85" s="114"/>
-      <c r="P85" s="114"/>
-      <c r="Q85" s="114"/>
-      <c r="R85" s="114"/>
-      <c r="S85" s="114"/>
+      <c r="L85" s="73"/>
+      <c r="M85" s="73"/>
+      <c r="N85" s="73"/>
+      <c r="O85" s="73"/>
+      <c r="P85" s="73"/>
+      <c r="Q85" s="73"/>
+      <c r="R85" s="73"/>
+      <c r="S85" s="73"/>
     </row>
     <row r="86" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L86" s="114"/>
-      <c r="M86" s="114"/>
-      <c r="N86" s="114"/>
-      <c r="O86" s="114"/>
-      <c r="P86" s="114"/>
-      <c r="Q86" s="114"/>
-      <c r="R86" s="114"/>
-      <c r="S86" s="114"/>
+      <c r="L86" s="73"/>
+      <c r="M86" s="73"/>
+      <c r="N86" s="73"/>
+      <c r="O86" s="73"/>
+      <c r="P86" s="73"/>
+      <c r="Q86" s="73"/>
+      <c r="R86" s="73"/>
+      <c r="S86" s="73"/>
     </row>
     <row r="87" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L87" s="114"/>
-      <c r="M87" s="114"/>
-      <c r="N87" s="114"/>
-      <c r="O87" s="114"/>
-      <c r="P87" s="114"/>
-      <c r="Q87" s="114"/>
-      <c r="R87" s="114"/>
-      <c r="S87" s="114"/>
+      <c r="L87" s="73"/>
+      <c r="M87" s="73"/>
+      <c r="N87" s="73"/>
+      <c r="O87" s="73"/>
+      <c r="P87" s="73"/>
+      <c r="Q87" s="73"/>
+      <c r="R87" s="73"/>
+      <c r="S87" s="73"/>
     </row>
     <row r="88" spans="12:19" x14ac:dyDescent="0.3">
-      <c r="L88" s="114"/>
-      <c r="M88" s="114"/>
-      <c r="N88" s="114"/>
-      <c r="O88" s="114"/>
-      <c r="P88" s="114"/>
-      <c r="Q88" s="114"/>
-      <c r="R88" s="114"/>
-      <c r="S88" s="114"/>
+      <c r="L88" s="73"/>
+      <c r="M88" s="73"/>
+      <c r="N88" s="73"/>
+      <c r="O88" s="73"/>
+      <c r="P88" s="73"/>
+      <c r="Q88" s="73"/>
+      <c r="R88" s="73"/>
+      <c r="S88" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M46:M48"/>
-    <mergeCell ref="L23:L34"/>
-    <mergeCell ref="M23:M27"/>
-    <mergeCell ref="M28:M34"/>
-    <mergeCell ref="L35:L48"/>
-    <mergeCell ref="M35:M45"/>
-    <mergeCell ref="L10:L22"/>
-    <mergeCell ref="M10:M22"/>
-    <mergeCell ref="L3:L9"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="M3:M9"/>
+    <mergeCell ref="B23:B34"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="C28:C34"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="D35:D36"/>
@@ -6701,21 +6703,19 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B23:B34"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M46:M48"/>
+    <mergeCell ref="L23:L34"/>
+    <mergeCell ref="M23:M27"/>
+    <mergeCell ref="M28:M34"/>
+    <mergeCell ref="L35:L48"/>
+    <mergeCell ref="M35:M45"/>
+    <mergeCell ref="L10:L22"/>
+    <mergeCell ref="M10:M22"/>
+    <mergeCell ref="L3:L9"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="M3:M9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
